--- a/data-migration/xlsx_1900-/1919_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1919_Winter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47463FD0-F601-4C42-9B82-50338D9BFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7230E40-13ED-41AC-9F6F-11CEBDBEF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1437">
   <si>
     <t>Winter</t>
   </si>
@@ -4190,9 +4190,6 @@
     <t>seiler_u</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>pfenninger_hf</t>
   </si>
   <si>
@@ -4292,9 +4289,6 @@
     <t>vonmeyenburg_h</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>vongonzenbach_w</t>
   </si>
   <si>
@@ -4341,6 +4335,15 @@
   </si>
   <si>
     <t>vakant</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4388,9 +4391,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4698,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C157" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4733,10 +4735,10 @@
         <v>1262</v>
       </c>
       <c r="I1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4762,7 +4764,7 @@
         <v>1263</v>
       </c>
       <c r="I2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4785,10 +4787,10 @@
         <v>956</v>
       </c>
       <c r="H3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4811,10 +4813,10 @@
         <v>957</v>
       </c>
       <c r="H4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4837,10 +4839,10 @@
         <v>958</v>
       </c>
       <c r="H5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4866,7 +4868,7 @@
         <v>1265</v>
       </c>
       <c r="I6" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4892,10 +4894,10 @@
         <v>1262</v>
       </c>
       <c r="I7" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J7" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4918,10 +4920,10 @@
         <v>961</v>
       </c>
       <c r="H8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I8" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4947,7 +4949,7 @@
         <v>1265</v>
       </c>
       <c r="I9" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4973,7 +4975,7 @@
         <v>1264</v>
       </c>
       <c r="I10" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4999,7 +5001,7 @@
         <v>1264</v>
       </c>
       <c r="I11" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5022,10 +5024,10 @@
         <v>965</v>
       </c>
       <c r="H12" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I12" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5051,7 +5053,7 @@
         <v>1266</v>
       </c>
       <c r="I13" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5074,10 +5076,10 @@
         <v>966</v>
       </c>
       <c r="H14" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I14" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5100,10 +5102,10 @@
         <v>967</v>
       </c>
       <c r="H15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I15" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5129,7 +5131,7 @@
         <v>1263</v>
       </c>
       <c r="I16" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5155,7 +5157,7 @@
         <v>1263</v>
       </c>
       <c r="I17" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5178,10 +5180,10 @@
         <v>970</v>
       </c>
       <c r="H18" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I18" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5207,10 +5209,10 @@
         <v>1262</v>
       </c>
       <c r="I19" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J19" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5236,7 +5238,7 @@
         <v>1264</v>
       </c>
       <c r="I20" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5262,7 +5264,7 @@
         <v>1266</v>
       </c>
       <c r="I21" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5288,7 +5290,7 @@
         <v>1266</v>
       </c>
       <c r="I22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5311,10 +5313,10 @@
         <v>972</v>
       </c>
       <c r="H23" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I23" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5340,7 +5342,7 @@
         <v>1267</v>
       </c>
       <c r="I24" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5366,7 +5368,7 @@
         <v>1268</v>
       </c>
       <c r="I25" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5392,10 +5394,10 @@
         <v>1269</v>
       </c>
       <c r="I26" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J26" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5421,10 +5423,10 @@
         <v>1269</v>
       </c>
       <c r="I27" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J27" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5450,7 +5452,7 @@
         <v>1270</v>
       </c>
       <c r="I28" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5476,7 +5478,7 @@
         <v>1271</v>
       </c>
       <c r="I29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5502,7 +5504,7 @@
         <v>1271</v>
       </c>
       <c r="I30" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5528,7 +5530,7 @@
         <v>1270</v>
       </c>
       <c r="I31" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5551,10 +5553,10 @@
         <v>973</v>
       </c>
       <c r="H32" t="s">
-        <v>1385</v>
+        <v>1434</v>
       </c>
       <c r="I32" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5580,7 +5582,7 @@
         <v>1271</v>
       </c>
       <c r="I33" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5606,7 +5608,7 @@
         <v>1270</v>
       </c>
       <c r="I34" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5632,7 +5634,7 @@
         <v>1273</v>
       </c>
       <c r="I35" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5658,7 +5660,7 @@
         <v>1273</v>
       </c>
       <c r="I36" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5684,7 +5686,7 @@
         <v>1267</v>
       </c>
       <c r="I37" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5710,7 +5712,7 @@
         <v>1273</v>
       </c>
       <c r="I38" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5733,10 +5735,10 @@
         <v>984</v>
       </c>
       <c r="H39" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I39" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5759,10 +5761,10 @@
         <v>987</v>
       </c>
       <c r="H40" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I40" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5788,7 +5790,7 @@
         <v>1274</v>
       </c>
       <c r="I41" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5814,7 +5816,7 @@
         <v>1275</v>
       </c>
       <c r="I42" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5840,7 +5842,7 @@
         <v>1274</v>
       </c>
       <c r="I43" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5866,7 +5868,7 @@
         <v>1276</v>
       </c>
       <c r="I44" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5892,7 +5894,7 @@
         <v>1276</v>
       </c>
       <c r="I45" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5918,7 +5920,7 @@
         <v>1276</v>
       </c>
       <c r="I46" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5944,7 +5946,7 @@
         <v>1277</v>
       </c>
       <c r="I47" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5970,7 +5972,7 @@
         <v>1278</v>
       </c>
       <c r="I48" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5996,7 +5998,7 @@
         <v>1279</v>
       </c>
       <c r="I49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6019,10 +6021,10 @@
         <v>995</v>
       </c>
       <c r="H50" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I50" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6045,10 +6047,10 @@
         <v>996</v>
       </c>
       <c r="H51" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I51" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -6074,7 +6076,7 @@
         <v>1278</v>
       </c>
       <c r="I52" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6100,7 +6102,7 @@
         <v>1280</v>
       </c>
       <c r="I53" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6126,7 +6128,7 @@
         <v>1281</v>
       </c>
       <c r="I54" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -6152,7 +6154,7 @@
         <v>1282</v>
       </c>
       <c r="I55" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6174,11 +6176,11 @@
       <c r="G56" t="s">
         <v>1001</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>1283</v>
       </c>
       <c r="I56" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6204,7 +6206,7 @@
         <v>1284</v>
       </c>
       <c r="I57" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6230,7 +6232,7 @@
         <v>1285</v>
       </c>
       <c r="I58" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6252,17 +6254,17 @@
       <c r="G59" t="s">
         <v>1004</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>1283</v>
       </c>
       <c r="I59" t="s">
-        <v>1428</v>
-      </c>
-      <c r="K59" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="L59" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6288,7 +6290,7 @@
         <v>1286</v>
       </c>
       <c r="I60" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -6314,7 +6316,7 @@
         <v>1267</v>
       </c>
       <c r="I61" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -6340,7 +6342,7 @@
         <v>1268</v>
       </c>
       <c r="I62" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -6366,7 +6368,7 @@
         <v>1287</v>
       </c>
       <c r="I63" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6392,10 +6394,10 @@
         <v>1269</v>
       </c>
       <c r="I64" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J64" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6421,7 +6423,7 @@
         <v>1271</v>
       </c>
       <c r="I65" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6447,7 +6449,7 @@
         <v>1273</v>
       </c>
       <c r="I66" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6473,7 +6475,7 @@
         <v>1267</v>
       </c>
       <c r="I67" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6496,10 +6498,10 @@
         <v>1012</v>
       </c>
       <c r="H68" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I68" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6525,7 +6527,7 @@
         <v>1274</v>
       </c>
       <c r="I69" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6551,7 +6553,7 @@
         <v>1276</v>
       </c>
       <c r="I70" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6577,7 +6579,7 @@
         <v>1276</v>
       </c>
       <c r="I71" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6603,7 +6605,7 @@
         <v>1278</v>
       </c>
       <c r="I72" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6629,7 +6631,7 @@
         <v>1277</v>
       </c>
       <c r="I73" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6655,7 +6657,7 @@
         <v>1279</v>
       </c>
       <c r="I74" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6681,7 +6683,7 @@
         <v>1278</v>
       </c>
       <c r="I75" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6704,10 +6706,10 @@
         <v>968</v>
       </c>
       <c r="H76" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I76" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6733,7 +6735,7 @@
         <v>1280</v>
       </c>
       <c r="I77" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6759,7 +6761,7 @@
         <v>1280</v>
       </c>
       <c r="I78" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6785,13 +6787,13 @@
         <v>1288</v>
       </c>
       <c r="I79" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K79" t="s">
         <v>1289</v>
       </c>
       <c r="L79" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6820,7 +6822,7 @@
         <v>1288</v>
       </c>
       <c r="I80" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6846,7 +6848,7 @@
         <v>1288</v>
       </c>
       <c r="I81" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6875,7 +6877,7 @@
         <v>1289</v>
       </c>
       <c r="I82" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6898,10 +6900,10 @@
         <v>1025</v>
       </c>
       <c r="H83" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I83" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6924,10 +6926,10 @@
         <v>1026</v>
       </c>
       <c r="H84" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I84" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6950,10 +6952,10 @@
         <v>1027</v>
       </c>
       <c r="H85" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I85" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6976,10 +6978,10 @@
         <v>998</v>
       </c>
       <c r="H86" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I86" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -7002,10 +7004,10 @@
         <v>1028</v>
       </c>
       <c r="H87" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I87" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -7028,10 +7030,10 @@
         <v>1029</v>
       </c>
       <c r="H88" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I88" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -7057,7 +7059,7 @@
         <v>1290</v>
       </c>
       <c r="I89" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -7083,7 +7085,7 @@
         <v>1290</v>
       </c>
       <c r="I90" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -7106,10 +7108,10 @@
         <v>1032</v>
       </c>
       <c r="H91" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I91" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -7132,10 +7134,10 @@
         <v>1033</v>
       </c>
       <c r="H92" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I92" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -7158,10 +7160,10 @@
         <v>1034</v>
       </c>
       <c r="H93" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I93" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -7184,10 +7186,10 @@
         <v>1035</v>
       </c>
       <c r="H94" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I94" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -7213,7 +7215,7 @@
         <v>1292</v>
       </c>
       <c r="I95" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -7239,7 +7241,7 @@
         <v>1292</v>
       </c>
       <c r="I96" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7265,7 +7267,7 @@
         <v>1292</v>
       </c>
       <c r="I97" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7291,7 +7293,7 @@
         <v>1292</v>
       </c>
       <c r="I98" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7317,7 +7319,7 @@
         <v>1292</v>
       </c>
       <c r="I99" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7343,7 +7345,7 @@
         <v>1292</v>
       </c>
       <c r="I100" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7366,10 +7368,10 @@
         <v>1042</v>
       </c>
       <c r="H101" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I101" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7392,10 +7394,10 @@
         <v>1043</v>
       </c>
       <c r="H102" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I102" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7418,10 +7420,10 @@
         <v>1044</v>
       </c>
       <c r="H103" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I103" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7447,7 +7449,7 @@
         <v>1293</v>
       </c>
       <c r="I104" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7473,7 +7475,7 @@
         <v>1293</v>
       </c>
       <c r="I105" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7499,7 +7501,7 @@
         <v>1293</v>
       </c>
       <c r="I106" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7522,10 +7524,10 @@
         <v>1047</v>
       </c>
       <c r="H107" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I107" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7548,10 +7550,10 @@
         <v>1043</v>
       </c>
       <c r="H108" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I108" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7574,10 +7576,10 @@
         <v>1048</v>
       </c>
       <c r="H109" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I109" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7600,10 +7602,10 @@
         <v>1049</v>
       </c>
       <c r="H110" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I110" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7626,10 +7628,10 @@
         <v>1050</v>
       </c>
       <c r="H111" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I111" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7655,7 +7657,7 @@
         <v>1294</v>
       </c>
       <c r="I112" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7681,7 +7683,7 @@
         <v>1295</v>
       </c>
       <c r="I113" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7707,7 +7709,7 @@
         <v>1295</v>
       </c>
       <c r="I114" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7733,7 +7735,7 @@
         <v>1296</v>
       </c>
       <c r="I115" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7759,7 +7761,7 @@
         <v>1296</v>
       </c>
       <c r="I116" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7785,7 +7787,7 @@
         <v>1296</v>
       </c>
       <c r="I117" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7811,7 +7813,7 @@
         <v>1297</v>
       </c>
       <c r="I118" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7837,7 +7839,7 @@
         <v>1297</v>
       </c>
       <c r="I119" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7863,7 +7865,7 @@
         <v>1297</v>
       </c>
       <c r="I120" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7889,7 +7891,7 @@
         <v>1298</v>
       </c>
       <c r="I121" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7915,7 +7917,7 @@
         <v>1299</v>
       </c>
       <c r="I122" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7941,13 +7943,13 @@
         <v>1299</v>
       </c>
       <c r="I123" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K123" t="s">
         <v>1300</v>
       </c>
       <c r="L123" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7973,7 +7975,7 @@
         <v>1299</v>
       </c>
       <c r="I124" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7999,7 +8001,7 @@
         <v>1300</v>
       </c>
       <c r="I125" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8025,7 +8027,7 @@
         <v>1300</v>
       </c>
       <c r="I126" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8051,7 +8053,7 @@
         <v>1300</v>
       </c>
       <c r="I127" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8077,7 +8079,7 @@
         <v>1301</v>
       </c>
       <c r="I128" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8103,7 +8105,7 @@
         <v>1301</v>
       </c>
       <c r="I129" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8129,7 +8131,7 @@
         <v>1302</v>
       </c>
       <c r="I130" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8155,7 +8157,7 @@
         <v>1302</v>
       </c>
       <c r="I131" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8178,10 +8180,10 @@
         <v>1009</v>
       </c>
       <c r="H132" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I132" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8207,7 +8209,7 @@
         <v>1304</v>
       </c>
       <c r="I133" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8233,7 +8235,7 @@
         <v>1305</v>
       </c>
       <c r="I134" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8259,7 +8261,7 @@
         <v>1305</v>
       </c>
       <c r="I135" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8285,7 +8287,7 @@
         <v>1306</v>
       </c>
       <c r="I136" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8311,7 +8313,7 @@
         <v>1307</v>
       </c>
       <c r="I137" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8337,7 +8339,7 @@
         <v>1307</v>
       </c>
       <c r="I138" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8360,10 +8362,10 @@
         <v>1070</v>
       </c>
       <c r="H139" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I139" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8386,10 +8388,10 @@
         <v>1071</v>
       </c>
       <c r="H140" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I140" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8412,10 +8414,10 @@
         <v>1043</v>
       </c>
       <c r="H141" t="s">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="I141" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8438,10 +8440,10 @@
         <v>1043</v>
       </c>
       <c r="H142" t="s">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="I142" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8464,7 +8466,7 @@
         <v>1072</v>
       </c>
       <c r="H143" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8487,7 +8489,7 @@
         <v>1073</v>
       </c>
       <c r="H144" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8510,10 +8512,10 @@
         <v>1074</v>
       </c>
       <c r="H145" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I145" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8536,10 +8538,10 @@
         <v>1043</v>
       </c>
       <c r="H146" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I146" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8565,7 +8567,7 @@
         <v>1308</v>
       </c>
       <c r="I147" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8591,7 +8593,7 @@
         <v>1308</v>
       </c>
       <c r="I148" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8617,7 +8619,7 @@
         <v>1309</v>
       </c>
       <c r="I149" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8643,7 +8645,7 @@
         <v>1309</v>
       </c>
       <c r="I150" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8669,7 +8671,7 @@
         <v>1309</v>
       </c>
       <c r="I151" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8692,10 +8694,10 @@
         <v>1080</v>
       </c>
       <c r="H152" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I152" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8718,10 +8720,10 @@
         <v>1081</v>
       </c>
       <c r="H153" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I153" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8744,10 +8746,10 @@
         <v>1082</v>
       </c>
       <c r="H154" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I154" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8770,10 +8772,10 @@
         <v>1083</v>
       </c>
       <c r="H155" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I155" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8796,10 +8798,10 @@
         <v>998</v>
       </c>
       <c r="H156" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I156" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8822,10 +8824,10 @@
         <v>1084</v>
       </c>
       <c r="H157" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I157" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8848,10 +8850,10 @@
         <v>999</v>
       </c>
       <c r="H158" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I158" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8874,16 +8876,16 @@
         <v>1085</v>
       </c>
       <c r="H159" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I159" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K159" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="L159" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8906,10 +8908,10 @@
         <v>1086</v>
       </c>
       <c r="H160" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I160" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -8932,10 +8934,10 @@
         <v>1087</v>
       </c>
       <c r="H161" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I161" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -8958,10 +8960,10 @@
         <v>1088</v>
       </c>
       <c r="H162" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I162" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -8987,10 +8989,10 @@
         <v>1310</v>
       </c>
       <c r="I163" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J163" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -9016,10 +9018,10 @@
         <v>1310</v>
       </c>
       <c r="I164" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J164" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -9045,10 +9047,10 @@
         <v>1310</v>
       </c>
       <c r="I165" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J165" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -9074,10 +9076,10 @@
         <v>1310</v>
       </c>
       <c r="I166" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J166" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -9103,10 +9105,10 @@
         <v>1310</v>
       </c>
       <c r="I167" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J167" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -9132,7 +9134,7 @@
         <v>1311</v>
       </c>
       <c r="I168" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -9155,10 +9157,10 @@
         <v>1092</v>
       </c>
       <c r="H169" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I169" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -9181,10 +9183,10 @@
         <v>982</v>
       </c>
       <c r="H170" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I170" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -9207,10 +9209,10 @@
         <v>1093</v>
       </c>
       <c r="H171" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I171" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -9236,7 +9238,7 @@
         <v>1312</v>
       </c>
       <c r="I172" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -9262,7 +9264,7 @@
         <v>1313</v>
       </c>
       <c r="I173" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -9288,7 +9290,7 @@
         <v>1313</v>
       </c>
       <c r="I174" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -9314,7 +9316,7 @@
         <v>1313</v>
       </c>
       <c r="I175" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -9340,7 +9342,7 @@
         <v>1313</v>
       </c>
       <c r="I176" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9363,10 +9365,10 @@
         <v>1099</v>
       </c>
       <c r="H177" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I177" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9389,10 +9391,10 @@
         <v>1100</v>
       </c>
       <c r="H178" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I178" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9415,10 +9417,10 @@
         <v>1101</v>
       </c>
       <c r="H179" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I179" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9441,10 +9443,10 @@
         <v>1102</v>
       </c>
       <c r="H180" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I180" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9467,10 +9469,10 @@
         <v>1103</v>
       </c>
       <c r="H181" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I181" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9493,10 +9495,10 @@
         <v>1104</v>
       </c>
       <c r="H182" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I182" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9519,10 +9521,10 @@
         <v>1026</v>
       </c>
       <c r="H183" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I183" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9545,10 +9547,10 @@
         <v>1105</v>
       </c>
       <c r="H184" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I184" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9574,7 +9576,7 @@
         <v>1314</v>
       </c>
       <c r="I185" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9600,7 +9602,7 @@
         <v>1314</v>
       </c>
       <c r="I186" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9626,13 +9628,13 @@
         <v>1314</v>
       </c>
       <c r="I187" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K187" t="s">
         <v>1315</v>
       </c>
       <c r="L187" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9658,7 +9660,7 @@
         <v>1314</v>
       </c>
       <c r="I188" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9684,7 +9686,7 @@
         <v>1314</v>
       </c>
       <c r="I189" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9710,7 +9712,7 @@
         <v>1315</v>
       </c>
       <c r="I190" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9736,7 +9738,7 @@
         <v>1315</v>
       </c>
       <c r="I191" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9762,7 +9764,7 @@
         <v>1316</v>
       </c>
       <c r="I192" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9788,7 +9790,7 @@
         <v>1316</v>
       </c>
       <c r="I193" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9814,7 +9816,7 @@
         <v>1316</v>
       </c>
       <c r="I194" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9840,7 +9842,7 @@
         <v>1316</v>
       </c>
       <c r="I195" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9866,7 +9868,7 @@
         <v>1316</v>
       </c>
       <c r="I196" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9892,7 +9894,7 @@
         <v>1317</v>
       </c>
       <c r="I197" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9918,7 +9920,7 @@
         <v>1317</v>
       </c>
       <c r="I198" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9944,7 +9946,7 @@
         <v>1317</v>
       </c>
       <c r="I199" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9970,7 +9972,7 @@
         <v>1318</v>
       </c>
       <c r="I200" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9996,7 +9998,7 @@
         <v>1318</v>
       </c>
       <c r="I201" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10022,7 +10024,7 @@
         <v>1318</v>
       </c>
       <c r="I202" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10045,10 +10047,10 @@
         <v>1123</v>
       </c>
       <c r="H203" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I203" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10074,7 +10076,7 @@
         <v>1318</v>
       </c>
       <c r="I204" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10100,7 +10102,7 @@
         <v>1318</v>
       </c>
       <c r="I205" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10126,7 +10128,7 @@
         <v>1318</v>
       </c>
       <c r="I206" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10149,10 +10151,10 @@
         <v>1126</v>
       </c>
       <c r="H207" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I207" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10175,10 +10177,10 @@
         <v>1125</v>
       </c>
       <c r="H208" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I208" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10204,7 +10206,7 @@
         <v>1319</v>
       </c>
       <c r="I209" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10230,7 +10232,7 @@
         <v>1319</v>
       </c>
       <c r="I210" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10256,7 +10258,7 @@
         <v>1319</v>
       </c>
       <c r="I211" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10282,7 +10284,7 @@
         <v>1319</v>
       </c>
       <c r="I212" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10308,7 +10310,7 @@
         <v>1319</v>
       </c>
       <c r="I213" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10334,10 +10336,10 @@
         <v>1320</v>
       </c>
       <c r="I214" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J214" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10363,10 +10365,10 @@
         <v>1320</v>
       </c>
       <c r="I215" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J215" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10392,10 +10394,10 @@
         <v>1321</v>
       </c>
       <c r="I216" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J216" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10421,10 +10423,10 @@
         <v>1321</v>
       </c>
       <c r="I217" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J217" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10450,7 +10452,7 @@
         <v>1322</v>
       </c>
       <c r="I218" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10476,7 +10478,7 @@
         <v>1322</v>
       </c>
       <c r="I219" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10502,7 +10504,7 @@
         <v>1322</v>
       </c>
       <c r="I220" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10525,10 +10527,10 @@
         <v>1137</v>
       </c>
       <c r="H221" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I221" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10554,10 +10556,10 @@
         <v>1321</v>
       </c>
       <c r="I222" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J222" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10580,10 +10582,10 @@
         <v>1139</v>
       </c>
       <c r="H223" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I223" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10609,7 +10611,7 @@
         <v>1268</v>
       </c>
       <c r="I224" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10635,7 +10637,7 @@
         <v>1268</v>
       </c>
       <c r="I225" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10658,10 +10660,10 @@
         <v>981</v>
       </c>
       <c r="H226" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I226" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10687,7 +10689,7 @@
         <v>1322</v>
       </c>
       <c r="I227" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10713,7 +10715,7 @@
         <v>1268</v>
       </c>
       <c r="I228" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10739,7 +10741,7 @@
         <v>1268</v>
       </c>
       <c r="I229" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10765,7 +10767,7 @@
         <v>1323</v>
       </c>
       <c r="I230" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10791,7 +10793,7 @@
         <v>1324</v>
       </c>
       <c r="I231" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10817,7 +10819,7 @@
         <v>1324</v>
       </c>
       <c r="I232" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10843,7 +10845,7 @@
         <v>1323</v>
       </c>
       <c r="I233" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10869,7 +10871,7 @@
         <v>1325</v>
       </c>
       <c r="I234" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10895,7 +10897,7 @@
         <v>1326</v>
       </c>
       <c r="I235" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10921,10 +10923,10 @@
         <v>1321</v>
       </c>
       <c r="I236" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J236" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10947,10 +10949,10 @@
         <v>1144</v>
       </c>
       <c r="H237" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I237" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10976,7 +10978,7 @@
         <v>1327</v>
       </c>
       <c r="I238" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11002,7 +11004,7 @@
         <v>1327</v>
       </c>
       <c r="I239" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11028,7 +11030,7 @@
         <v>1327</v>
       </c>
       <c r="I240" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11054,7 +11056,7 @@
         <v>1327</v>
       </c>
       <c r="I241" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11080,7 +11082,7 @@
         <v>1327</v>
       </c>
       <c r="I242" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11106,7 +11108,7 @@
         <v>1286</v>
       </c>
       <c r="I243" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11132,7 +11134,7 @@
         <v>1263</v>
       </c>
       <c r="I244" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11158,7 +11160,7 @@
         <v>1291</v>
       </c>
       <c r="I245" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11184,7 +11186,7 @@
         <v>1263</v>
       </c>
       <c r="I246" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11210,7 +11212,7 @@
         <v>1291</v>
       </c>
       <c r="I247" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11236,7 +11238,7 @@
         <v>1263</v>
       </c>
       <c r="I248" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11262,7 +11264,7 @@
         <v>1328</v>
       </c>
       <c r="I249" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11288,7 +11290,7 @@
         <v>1328</v>
       </c>
       <c r="I250" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11314,7 +11316,7 @@
         <v>1291</v>
       </c>
       <c r="I251" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11340,7 +11342,7 @@
         <v>1328</v>
       </c>
       <c r="I252" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11366,7 +11368,7 @@
         <v>1329</v>
       </c>
       <c r="I253" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11392,7 +11394,7 @@
         <v>1286</v>
       </c>
       <c r="I254" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11418,7 +11420,7 @@
         <v>1329</v>
       </c>
       <c r="I255" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11444,7 +11446,7 @@
         <v>1329</v>
       </c>
       <c r="I256" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11470,7 +11472,7 @@
         <v>1329</v>
       </c>
       <c r="I257" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11496,7 +11498,7 @@
         <v>1330</v>
       </c>
       <c r="I258" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11522,7 +11524,7 @@
         <v>1330</v>
       </c>
       <c r="I259" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11548,7 +11550,7 @@
         <v>1286</v>
       </c>
       <c r="I260" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11571,10 +11573,10 @@
         <v>1079</v>
       </c>
       <c r="H261" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I261" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11597,10 +11599,10 @@
         <v>1079</v>
       </c>
       <c r="H262" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I262" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11626,7 +11628,7 @@
         <v>1331</v>
       </c>
       <c r="I263" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11652,7 +11654,7 @@
         <v>1331</v>
       </c>
       <c r="I264" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11678,7 +11680,7 @@
         <v>1331</v>
       </c>
       <c r="I265" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11701,10 +11703,10 @@
         <v>1158</v>
       </c>
       <c r="H266" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I266" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11727,10 +11729,10 @@
         <v>1159</v>
       </c>
       <c r="H267" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I267" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11753,10 +11755,10 @@
         <v>1139</v>
       </c>
       <c r="H268" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I268" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11779,10 +11781,10 @@
         <v>1026</v>
       </c>
       <c r="H269" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I269" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11808,7 +11810,7 @@
         <v>1332</v>
       </c>
       <c r="I270" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11834,7 +11836,7 @@
         <v>1332</v>
       </c>
       <c r="I271" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11863,7 +11865,7 @@
         <v>1332</v>
       </c>
       <c r="I272" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11886,10 +11888,10 @@
         <v>1163</v>
       </c>
       <c r="H273" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I273" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11912,10 +11914,10 @@
         <v>1011</v>
       </c>
       <c r="H274" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I274" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11938,10 +11940,10 @@
         <v>1139</v>
       </c>
       <c r="H275" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I275" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11964,10 +11966,10 @@
         <v>994</v>
       </c>
       <c r="H276" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I276" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11990,10 +11992,10 @@
         <v>961</v>
       </c>
       <c r="H277" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I277" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -12019,7 +12021,7 @@
         <v>1333</v>
       </c>
       <c r="I278" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -12045,7 +12047,7 @@
         <v>1333</v>
       </c>
       <c r="I279" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -12071,7 +12073,7 @@
         <v>1334</v>
       </c>
       <c r="I280" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -12097,7 +12099,7 @@
         <v>1332</v>
       </c>
       <c r="I281" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -12123,7 +12125,7 @@
         <v>1332</v>
       </c>
       <c r="I282" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -12149,10 +12151,10 @@
         <v>1335</v>
       </c>
       <c r="I283" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J283" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -12181,10 +12183,10 @@
         <v>1335</v>
       </c>
       <c r="I284" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J284" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -12213,10 +12215,10 @@
         <v>1335</v>
       </c>
       <c r="I285" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J285" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -12242,7 +12244,7 @@
         <v>1336</v>
       </c>
       <c r="I286" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -12268,7 +12270,7 @@
         <v>1336</v>
       </c>
       <c r="I287" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12294,7 +12296,7 @@
         <v>1337</v>
       </c>
       <c r="I288" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12320,7 +12322,7 @@
         <v>1337</v>
       </c>
       <c r="I289" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12346,7 +12348,7 @@
         <v>1337</v>
       </c>
       <c r="I290" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12372,7 +12374,7 @@
         <v>1337</v>
       </c>
       <c r="I291" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12398,7 +12400,7 @@
         <v>1338</v>
       </c>
       <c r="I292" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12424,7 +12426,7 @@
         <v>1339</v>
       </c>
       <c r="I293" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12450,7 +12452,7 @@
         <v>1339</v>
       </c>
       <c r="I294" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12476,7 +12478,7 @@
         <v>1339</v>
       </c>
       <c r="I295" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12502,7 +12504,7 @@
         <v>1340</v>
       </c>
       <c r="I296" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12525,10 +12527,10 @@
         <v>960</v>
       </c>
       <c r="H297" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I297" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12551,10 +12553,10 @@
         <v>1155</v>
       </c>
       <c r="H298" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I298" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12580,7 +12582,7 @@
         <v>1341</v>
       </c>
       <c r="I299" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12606,7 +12608,7 @@
         <v>1342</v>
       </c>
       <c r="I300" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12632,7 +12634,7 @@
         <v>1343</v>
       </c>
       <c r="I301" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12658,7 +12660,7 @@
         <v>1343</v>
       </c>
       <c r="I302" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12684,7 +12686,7 @@
         <v>1344</v>
       </c>
       <c r="I303" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12710,7 +12712,7 @@
         <v>1328</v>
       </c>
       <c r="I304" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12736,7 +12738,7 @@
         <v>1342</v>
       </c>
       <c r="I305" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12762,7 +12764,7 @@
         <v>1342</v>
       </c>
       <c r="I306" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12788,7 +12790,7 @@
         <v>1345</v>
       </c>
       <c r="I307" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12811,10 +12813,10 @@
         <v>957</v>
       </c>
       <c r="H308" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I308" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12837,10 +12839,10 @@
         <v>992</v>
       </c>
       <c r="H309" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I309" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12866,7 +12868,7 @@
         <v>1345</v>
       </c>
       <c r="I310" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12889,10 +12891,10 @@
         <v>1182</v>
       </c>
       <c r="H311" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I311" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12915,10 +12917,10 @@
         <v>1183</v>
       </c>
       <c r="H312" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I312" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12944,7 +12946,7 @@
         <v>1346</v>
       </c>
       <c r="I313" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12970,7 +12972,7 @@
         <v>1341</v>
       </c>
       <c r="I314" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12996,7 +12998,7 @@
         <v>1341</v>
       </c>
       <c r="I315" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13022,7 +13024,7 @@
         <v>1303</v>
       </c>
       <c r="I316" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13048,7 +13050,7 @@
         <v>1347</v>
       </c>
       <c r="I317" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13074,7 +13076,7 @@
         <v>1347</v>
       </c>
       <c r="I318" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13100,7 +13102,7 @@
         <v>1347</v>
       </c>
       <c r="I319" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13126,7 +13128,7 @@
         <v>1272</v>
       </c>
       <c r="I320" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -13152,7 +13154,7 @@
         <v>1272</v>
       </c>
       <c r="I321" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -13178,7 +13180,7 @@
         <v>1348</v>
       </c>
       <c r="I322" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -13204,7 +13206,7 @@
         <v>1348</v>
       </c>
       <c r="I323" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -13230,7 +13232,7 @@
         <v>1349</v>
       </c>
       <c r="I324" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -13256,7 +13258,7 @@
         <v>1349</v>
       </c>
       <c r="I325" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -13279,10 +13281,10 @@
         <v>1189</v>
       </c>
       <c r="H326" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I326" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -13308,10 +13310,10 @@
         <v>1321</v>
       </c>
       <c r="I327" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J327" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -13337,10 +13339,10 @@
         <v>1321</v>
       </c>
       <c r="I328" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J328" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -13366,7 +13368,7 @@
         <v>1330</v>
       </c>
       <c r="I329" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -13392,7 +13394,7 @@
         <v>1330</v>
       </c>
       <c r="I330" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -13418,7 +13420,7 @@
         <v>1330</v>
       </c>
       <c r="I331" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -13444,7 +13446,7 @@
         <v>1329</v>
       </c>
       <c r="I332" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -13470,7 +13472,7 @@
         <v>1329</v>
       </c>
       <c r="I333" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -13496,7 +13498,7 @@
         <v>1331</v>
       </c>
       <c r="I334" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -13522,7 +13524,7 @@
         <v>1331</v>
       </c>
       <c r="I335" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -13545,10 +13547,10 @@
         <v>1194</v>
       </c>
       <c r="H336" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I336" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13574,7 +13576,7 @@
         <v>1332</v>
       </c>
       <c r="I337" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13600,10 +13602,10 @@
         <v>1335</v>
       </c>
       <c r="I338" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J338" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13629,10 +13631,10 @@
         <v>1335</v>
       </c>
       <c r="I339" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J339" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13658,7 +13660,7 @@
         <v>1338</v>
       </c>
       <c r="I340" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13684,7 +13686,7 @@
         <v>1337</v>
       </c>
       <c r="I341" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13710,7 +13712,7 @@
         <v>1339</v>
       </c>
       <c r="I342" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13733,10 +13735,10 @@
         <v>1198</v>
       </c>
       <c r="H343" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I343" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13759,10 +13761,10 @@
         <v>972</v>
       </c>
       <c r="H344" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I344" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13788,7 +13790,7 @@
         <v>1345</v>
       </c>
       <c r="I345" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13811,10 +13813,10 @@
         <v>1014</v>
       </c>
       <c r="H346" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I346" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13840,7 +13842,7 @@
         <v>1303</v>
       </c>
       <c r="I347" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13866,7 +13868,7 @@
         <v>1346</v>
       </c>
       <c r="I348" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13889,10 +13891,10 @@
         <v>1043</v>
       </c>
       <c r="H349" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I349" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13915,10 +13917,10 @@
         <v>1043</v>
       </c>
       <c r="H350" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I350" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13941,10 +13943,10 @@
         <v>1079</v>
       </c>
       <c r="H351" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I351" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13970,7 +13972,7 @@
         <v>1333</v>
       </c>
       <c r="I352" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13996,7 +13998,7 @@
         <v>1338</v>
       </c>
       <c r="I353" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -14022,7 +14024,7 @@
         <v>1350</v>
       </c>
       <c r="I354" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -14048,7 +14050,7 @@
         <v>1333</v>
       </c>
       <c r="I355" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -14071,10 +14073,10 @@
         <v>1052</v>
       </c>
       <c r="H356" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I356" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -14100,7 +14102,7 @@
         <v>1350</v>
       </c>
       <c r="I357" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -14123,10 +14125,10 @@
         <v>1079</v>
       </c>
       <c r="H358" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I358" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14149,10 +14151,10 @@
         <v>1201</v>
       </c>
       <c r="H359" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I359" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14175,10 +14177,10 @@
         <v>1006</v>
       </c>
       <c r="H360" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I360" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14201,10 +14203,10 @@
         <v>1202</v>
       </c>
       <c r="H361" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I361" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14227,16 +14229,16 @@
         <v>996</v>
       </c>
       <c r="H362" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I362" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K362" t="s">
         <v>1352</v>
       </c>
       <c r="L362" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14262,7 +14264,7 @@
         <v>1352</v>
       </c>
       <c r="I363" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14288,7 +14290,7 @@
         <v>1352</v>
       </c>
       <c r="I364" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14314,7 +14316,7 @@
         <v>1352</v>
       </c>
       <c r="I365" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14340,7 +14342,7 @@
         <v>1352</v>
       </c>
       <c r="I366" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14366,7 +14368,7 @@
         <v>1353</v>
       </c>
       <c r="I367" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14395,10 +14397,10 @@
         <v>1354</v>
       </c>
       <c r="I368" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J368" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14427,10 +14429,10 @@
         <v>1354</v>
       </c>
       <c r="I369" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J369" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14459,10 +14461,10 @@
         <v>1354</v>
       </c>
       <c r="I370" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J370" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14488,10 +14490,10 @@
         <v>1207</v>
       </c>
       <c r="H371" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I371" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14514,10 +14516,10 @@
         <v>998</v>
       </c>
       <c r="H372" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I372" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14540,10 +14542,10 @@
         <v>1125</v>
       </c>
       <c r="H373" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I373" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14566,10 +14568,10 @@
         <v>1208</v>
       </c>
       <c r="H374" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I374" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14592,10 +14594,10 @@
         <v>1209</v>
       </c>
       <c r="H375" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I375" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14618,10 +14620,10 @@
         <v>1110</v>
       </c>
       <c r="H376" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I376" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14644,10 +14646,10 @@
         <v>1210</v>
       </c>
       <c r="H377" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I377" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14673,7 +14675,7 @@
         <v>1355</v>
       </c>
       <c r="I378" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14699,7 +14701,7 @@
         <v>1355</v>
       </c>
       <c r="I379" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14725,7 +14727,7 @@
         <v>1356</v>
       </c>
       <c r="I380" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14751,7 +14753,7 @@
         <v>1356</v>
       </c>
       <c r="I381" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14777,7 +14779,7 @@
         <v>1356</v>
       </c>
       <c r="I382" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14803,7 +14805,7 @@
         <v>1357</v>
       </c>
       <c r="I383" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14829,7 +14831,7 @@
         <v>1358</v>
       </c>
       <c r="I384" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14855,7 +14857,7 @@
         <v>1359</v>
       </c>
       <c r="I385" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14881,7 +14883,7 @@
         <v>1360</v>
       </c>
       <c r="I386" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14907,7 +14909,7 @@
         <v>1360</v>
       </c>
       <c r="I387" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14933,7 +14935,7 @@
         <v>1361</v>
       </c>
       <c r="I388" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14959,7 +14961,7 @@
         <v>1361</v>
       </c>
       <c r="I389" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14982,7 +14984,7 @@
         <v>1218</v>
       </c>
       <c r="H390" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15005,7 +15007,7 @@
         <v>1110</v>
       </c>
       <c r="H391" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15028,7 +15030,7 @@
         <v>1110</v>
       </c>
       <c r="H392" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15051,7 +15053,7 @@
         <v>1209</v>
       </c>
       <c r="H393" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15077,7 +15079,7 @@
         <v>1362</v>
       </c>
       <c r="I394" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15103,7 +15105,7 @@
         <v>1362</v>
       </c>
       <c r="I395" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15129,7 +15131,7 @@
         <v>1362</v>
       </c>
       <c r="I396" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15155,7 +15157,7 @@
         <v>1362</v>
       </c>
       <c r="I397" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15181,7 +15183,7 @@
         <v>1362</v>
       </c>
       <c r="I398" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15207,7 +15209,7 @@
         <v>1362</v>
       </c>
       <c r="I399" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15233,7 +15235,7 @@
         <v>1362</v>
       </c>
       <c r="I400" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15259,7 +15261,7 @@
         <v>1363</v>
       </c>
       <c r="I401" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15285,7 +15287,7 @@
         <v>1363</v>
       </c>
       <c r="I402" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15311,7 +15313,7 @@
         <v>1364</v>
       </c>
       <c r="I403" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15337,7 +15339,7 @@
         <v>1364</v>
       </c>
       <c r="I404" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15363,7 +15365,7 @@
         <v>1365</v>
       </c>
       <c r="I405" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15389,7 +15391,7 @@
         <v>1365</v>
       </c>
       <c r="I406" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15415,7 +15417,7 @@
         <v>1365</v>
       </c>
       <c r="I407" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15441,7 +15443,7 @@
         <v>1366</v>
       </c>
       <c r="I408" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15467,7 +15469,7 @@
         <v>1366</v>
       </c>
       <c r="I409" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15493,7 +15495,7 @@
         <v>1367</v>
       </c>
       <c r="I410" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15522,7 +15524,7 @@
         <v>1368</v>
       </c>
       <c r="I411" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15551,7 +15553,7 @@
         <v>1368</v>
       </c>
       <c r="I412" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15580,7 +15582,7 @@
         <v>1368</v>
       </c>
       <c r="I413" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15609,7 +15611,7 @@
         <v>1368</v>
       </c>
       <c r="I414" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15638,7 +15640,7 @@
         <v>1368</v>
       </c>
       <c r="I415" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15667,7 +15669,7 @@
         <v>1368</v>
       </c>
       <c r="I416" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15696,7 +15698,7 @@
         <v>1368</v>
       </c>
       <c r="I417" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15725,7 +15727,7 @@
         <v>1369</v>
       </c>
       <c r="I418" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15754,7 +15756,7 @@
         <v>1369</v>
       </c>
       <c r="I419" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15783,7 +15785,7 @@
         <v>1369</v>
       </c>
       <c r="I420" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15812,7 +15814,7 @@
         <v>1369</v>
       </c>
       <c r="I421" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15841,7 +15843,7 @@
         <v>1369</v>
       </c>
       <c r="I422" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15870,7 +15872,7 @@
         <v>1369</v>
       </c>
       <c r="I423" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15899,7 +15901,7 @@
         <v>1369</v>
       </c>
       <c r="I424" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15925,7 +15927,7 @@
         <v>1370</v>
       </c>
       <c r="I425" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15951,7 +15953,7 @@
         <v>1370</v>
       </c>
       <c r="I426" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15977,7 +15979,7 @@
         <v>1283</v>
       </c>
       <c r="I427" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16003,7 +16005,7 @@
         <v>1283</v>
       </c>
       <c r="I428" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16029,7 +16031,7 @@
         <v>1283</v>
       </c>
       <c r="I429" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16055,13 +16057,13 @@
         <v>1283</v>
       </c>
       <c r="I430" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K430" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="L430" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16087,13 +16089,13 @@
         <v>1283</v>
       </c>
       <c r="I431" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K431" t="s">
         <v>1371</v>
       </c>
       <c r="L431" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16116,10 +16118,10 @@
         <v>1043</v>
       </c>
       <c r="H432" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I432" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16145,7 +16147,7 @@
         <v>1371</v>
       </c>
       <c r="I433" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16171,7 +16173,7 @@
         <v>1372</v>
       </c>
       <c r="I434" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16197,7 +16199,7 @@
         <v>1373</v>
       </c>
       <c r="I435" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16223,7 +16225,7 @@
         <v>1373</v>
       </c>
       <c r="I436" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16249,7 +16251,7 @@
         <v>1373</v>
       </c>
       <c r="I437" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16272,10 +16274,10 @@
         <v>1244</v>
       </c>
       <c r="H438" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I438" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16298,10 +16300,10 @@
         <v>1245</v>
       </c>
       <c r="H439" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I439" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16324,10 +16326,10 @@
         <v>1246</v>
       </c>
       <c r="H440" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I440" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16350,10 +16352,10 @@
         <v>1247</v>
       </c>
       <c r="H441" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I441" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16376,10 +16378,10 @@
         <v>1248</v>
       </c>
       <c r="H442" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I442" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16402,10 +16404,10 @@
         <v>1249</v>
       </c>
       <c r="H443" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I443" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16431,7 +16433,7 @@
         <v>1374</v>
       </c>
       <c r="I444" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16457,7 +16459,7 @@
         <v>1374</v>
       </c>
       <c r="I445" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16483,7 +16485,7 @@
         <v>1374</v>
       </c>
       <c r="I446" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16509,7 +16511,7 @@
         <v>1374</v>
       </c>
       <c r="I447" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16535,7 +16537,7 @@
         <v>1374</v>
       </c>
       <c r="I448" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16561,7 +16563,7 @@
         <v>1374</v>
       </c>
       <c r="I449" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16587,7 +16589,7 @@
         <v>1375</v>
       </c>
       <c r="I450" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16613,7 +16615,7 @@
         <v>1376</v>
       </c>
       <c r="I451" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16639,7 +16641,7 @@
         <v>1376</v>
       </c>
       <c r="I452" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16665,7 +16667,7 @@
         <v>1377</v>
       </c>
       <c r="I453" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16694,7 +16696,7 @@
         <v>1378</v>
       </c>
       <c r="I454" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16720,13 +16722,13 @@
         <v>1378</v>
       </c>
       <c r="I455" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K455" t="s">
         <v>1381</v>
       </c>
       <c r="L455" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16752,7 +16754,7 @@
         <v>1378</v>
       </c>
       <c r="I456" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K456" t="s">
         <v>1379</v>
@@ -16761,7 +16763,7 @@
         <v>1381</v>
       </c>
       <c r="N456" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16787,7 +16789,7 @@
         <v>1378</v>
       </c>
       <c r="I457" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16813,7 +16815,7 @@
         <v>1379</v>
       </c>
       <c r="I458" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16839,7 +16841,7 @@
         <v>1379</v>
       </c>
       <c r="I459" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16865,7 +16867,7 @@
         <v>1379</v>
       </c>
       <c r="I460" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16891,7 +16893,7 @@
         <v>1380</v>
       </c>
       <c r="I461" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16917,7 +16919,7 @@
         <v>1381</v>
       </c>
       <c r="I462" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -16943,7 +16945,7 @@
         <v>1381</v>
       </c>
       <c r="I463" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -16966,10 +16968,10 @@
         <v>1079</v>
       </c>
       <c r="H464" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I464" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -16995,7 +16997,7 @@
         <v>1382</v>
       </c>
       <c r="I465" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17021,7 +17023,7 @@
         <v>1382</v>
       </c>
       <c r="I466" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17047,7 +17049,7 @@
         <v>1383</v>
       </c>
       <c r="I467" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17073,7 +17075,7 @@
         <v>1383</v>
       </c>
       <c r="I468" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -17099,7 +17101,7 @@
         <v>1383</v>
       </c>
       <c r="I469" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -17125,7 +17127,7 @@
         <v>1383</v>
       </c>
       <c r="I470" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -17151,7 +17153,7 @@
         <v>1383</v>
       </c>
       <c r="I471" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -17177,7 +17179,7 @@
         <v>1383</v>
       </c>
       <c r="I472" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -17203,7 +17205,7 @@
         <v>1384</v>
       </c>
       <c r="I473" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -17229,7 +17231,7 @@
         <v>1351</v>
       </c>
       <c r="I474" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1919_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1919_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7230E40-13ED-41AC-9F6F-11CEBDBEF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3DB2AB-CB88-4C68-9B25-BDEC4516701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3896,9 +3896,6 @@
     <t>abegg_e</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>felix_w</t>
   </si>
   <si>
@@ -4193,9 +4190,6 @@
     <t>pfenninger_hf</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>hess_wr</t>
   </si>
   <si>
@@ -4211,15 +4205,9 @@
     <t>brun_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>huguenin_g</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4295,12 +4283,6 @@
     <t>hess_w</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>meyer_e</t>
   </si>
   <si>
@@ -4344,13 +4326,31 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4369,6 +4369,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4391,12 +4398,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4700,11 +4711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C157" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" topLeftCell="B141" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="37.77734375" customWidth="1"/>
     <col min="6" max="6" width="32.44140625" customWidth="1"/>
@@ -4735,10 +4746,10 @@
         <v>1262</v>
       </c>
       <c r="I1" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J1" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4764,7 +4775,7 @@
         <v>1263</v>
       </c>
       <c r="I2" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4787,10 +4798,10 @@
         <v>956</v>
       </c>
       <c r="H3" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="I3" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4813,10 +4824,10 @@
         <v>957</v>
       </c>
       <c r="H4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="I4" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4839,10 +4850,10 @@
         <v>958</v>
       </c>
       <c r="H5" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="I5" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,7 +4879,7 @@
         <v>1265</v>
       </c>
       <c r="I6" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4894,10 +4905,10 @@
         <v>1262</v>
       </c>
       <c r="I7" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J7" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4920,10 +4931,10 @@
         <v>961</v>
       </c>
       <c r="H8" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="I8" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4949,7 +4960,7 @@
         <v>1265</v>
       </c>
       <c r="I9" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4975,7 +4986,7 @@
         <v>1264</v>
       </c>
       <c r="I10" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5001,7 +5012,7 @@
         <v>1264</v>
       </c>
       <c r="I11" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5024,10 +5035,10 @@
         <v>965</v>
       </c>
       <c r="H12" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="I12" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5053,7 +5064,7 @@
         <v>1266</v>
       </c>
       <c r="I13" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5076,10 +5087,10 @@
         <v>966</v>
       </c>
       <c r="H14" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="I14" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5102,10 +5113,10 @@
         <v>967</v>
       </c>
       <c r="H15" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="I15" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5131,7 +5142,7 @@
         <v>1263</v>
       </c>
       <c r="I16" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5157,7 +5168,7 @@
         <v>1263</v>
       </c>
       <c r="I17" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5180,10 +5191,10 @@
         <v>970</v>
       </c>
       <c r="H18" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="I18" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5209,10 +5220,10 @@
         <v>1262</v>
       </c>
       <c r="I19" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J19" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5238,7 +5249,7 @@
         <v>1264</v>
       </c>
       <c r="I20" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5264,7 +5275,7 @@
         <v>1266</v>
       </c>
       <c r="I21" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5290,7 +5301,7 @@
         <v>1266</v>
       </c>
       <c r="I22" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5313,10 +5324,10 @@
         <v>972</v>
       </c>
       <c r="H23" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="I23" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5342,7 +5353,7 @@
         <v>1267</v>
       </c>
       <c r="I24" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5368,7 +5379,7 @@
         <v>1268</v>
       </c>
       <c r="I25" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5394,10 +5405,10 @@
         <v>1269</v>
       </c>
       <c r="I26" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J26" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5423,10 +5434,10 @@
         <v>1269</v>
       </c>
       <c r="I27" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J27" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5452,7 +5463,7 @@
         <v>1270</v>
       </c>
       <c r="I28" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5478,7 +5489,7 @@
         <v>1271</v>
       </c>
       <c r="I29" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5504,7 +5515,7 @@
         <v>1271</v>
       </c>
       <c r="I30" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5530,7 +5541,7 @@
         <v>1270</v>
       </c>
       <c r="I31" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5553,10 +5564,10 @@
         <v>973</v>
       </c>
       <c r="H32" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="I32" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5582,7 +5593,7 @@
         <v>1271</v>
       </c>
       <c r="I33" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5608,7 +5619,7 @@
         <v>1270</v>
       </c>
       <c r="I34" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5634,7 +5645,7 @@
         <v>1273</v>
       </c>
       <c r="I35" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,7 +5671,7 @@
         <v>1273</v>
       </c>
       <c r="I36" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5686,7 +5697,7 @@
         <v>1267</v>
       </c>
       <c r="I37" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5712,7 +5723,7 @@
         <v>1273</v>
       </c>
       <c r="I38" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5735,10 +5746,10 @@
         <v>984</v>
       </c>
       <c r="H39" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I39" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5761,10 +5772,10 @@
         <v>987</v>
       </c>
       <c r="H40" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="I40" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5790,7 +5801,7 @@
         <v>1274</v>
       </c>
       <c r="I41" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5816,7 +5827,7 @@
         <v>1275</v>
       </c>
       <c r="I42" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5842,7 +5853,7 @@
         <v>1274</v>
       </c>
       <c r="I43" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5868,7 +5879,7 @@
         <v>1276</v>
       </c>
       <c r="I44" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5894,7 +5905,7 @@
         <v>1276</v>
       </c>
       <c r="I45" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5920,7 +5931,7 @@
         <v>1276</v>
       </c>
       <c r="I46" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5946,7 +5957,7 @@
         <v>1277</v>
       </c>
       <c r="I47" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5972,7 +5983,7 @@
         <v>1278</v>
       </c>
       <c r="I48" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5998,7 +6009,7 @@
         <v>1279</v>
       </c>
       <c r="I49" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6021,10 +6032,10 @@
         <v>995</v>
       </c>
       <c r="H50" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="I50" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6047,10 +6058,10 @@
         <v>996</v>
       </c>
       <c r="H51" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="I51" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -6076,7 +6087,7 @@
         <v>1278</v>
       </c>
       <c r="I52" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6102,7 +6113,7 @@
         <v>1280</v>
       </c>
       <c r="I53" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6128,7 +6139,7 @@
         <v>1281</v>
       </c>
       <c r="I54" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -6154,7 +6165,7 @@
         <v>1282</v>
       </c>
       <c r="I55" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6180,7 +6191,7 @@
         <v>1283</v>
       </c>
       <c r="I56" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6206,7 +6217,7 @@
         <v>1284</v>
       </c>
       <c r="I57" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6232,7 +6243,7 @@
         <v>1285</v>
       </c>
       <c r="I58" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6258,13 +6269,13 @@
         <v>1283</v>
       </c>
       <c r="I59" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="L59" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6290,7 +6301,7 @@
         <v>1286</v>
       </c>
       <c r="I60" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -6316,7 +6327,7 @@
         <v>1267</v>
       </c>
       <c r="I61" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -6342,7 +6353,7 @@
         <v>1268</v>
       </c>
       <c r="I62" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -6365,10 +6376,10 @@
         <v>1008</v>
       </c>
       <c r="H63" t="s">
-        <v>1287</v>
+        <v>1435</v>
       </c>
       <c r="I63" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6394,10 +6405,10 @@
         <v>1269</v>
       </c>
       <c r="I64" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J64" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6423,7 +6434,7 @@
         <v>1271</v>
       </c>
       <c r="I65" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6449,7 +6460,7 @@
         <v>1273</v>
       </c>
       <c r="I66" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6475,7 +6486,7 @@
         <v>1267</v>
       </c>
       <c r="I67" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6498,10 +6509,10 @@
         <v>1012</v>
       </c>
       <c r="H68" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I68" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6527,7 +6538,7 @@
         <v>1274</v>
       </c>
       <c r="I69" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6553,7 +6564,7 @@
         <v>1276</v>
       </c>
       <c r="I70" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6579,7 +6590,7 @@
         <v>1276</v>
       </c>
       <c r="I71" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6605,7 +6616,7 @@
         <v>1278</v>
       </c>
       <c r="I72" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6631,7 +6642,7 @@
         <v>1277</v>
       </c>
       <c r="I73" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6657,7 +6668,7 @@
         <v>1279</v>
       </c>
       <c r="I74" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6683,7 +6694,7 @@
         <v>1278</v>
       </c>
       <c r="I75" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6706,10 +6717,10 @@
         <v>968</v>
       </c>
       <c r="H76" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="I76" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6735,7 +6746,7 @@
         <v>1280</v>
       </c>
       <c r="I77" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6761,7 +6772,7 @@
         <v>1280</v>
       </c>
       <c r="I78" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6784,16 +6795,16 @@
         <v>1021</v>
       </c>
       <c r="H79" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K79" t="s">
         <v>1288</v>
       </c>
-      <c r="I79" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1289</v>
-      </c>
       <c r="L79" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6819,10 +6830,10 @@
         <v>1022</v>
       </c>
       <c r="H80" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I80" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6845,10 +6856,10 @@
         <v>1023</v>
       </c>
       <c r="H81" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I81" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6874,10 +6885,10 @@
         <v>1024</v>
       </c>
       <c r="H82" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I82" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6900,10 +6911,10 @@
         <v>1025</v>
       </c>
       <c r="H83" t="s">
-        <v>1386</v>
+        <v>1431</v>
       </c>
       <c r="I83" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6926,10 +6937,10 @@
         <v>1026</v>
       </c>
       <c r="H84" t="s">
-        <v>1386</v>
+        <v>1431</v>
       </c>
       <c r="I84" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6952,10 +6963,10 @@
         <v>1027</v>
       </c>
       <c r="H85" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="I85" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6978,10 +6989,10 @@
         <v>998</v>
       </c>
       <c r="H86" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="I86" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -7004,10 +7015,10 @@
         <v>1028</v>
       </c>
       <c r="H87" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="I87" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -7030,10 +7041,10 @@
         <v>1029</v>
       </c>
       <c r="H88" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="I88" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -7056,10 +7067,10 @@
         <v>1030</v>
       </c>
       <c r="H89" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I89" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -7082,10 +7093,10 @@
         <v>1031</v>
       </c>
       <c r="H90" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I90" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -7108,10 +7119,10 @@
         <v>1032</v>
       </c>
       <c r="H91" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I91" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -7134,10 +7145,10 @@
         <v>1033</v>
       </c>
       <c r="H92" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I92" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -7160,10 +7171,10 @@
         <v>1034</v>
       </c>
       <c r="H93" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I93" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -7186,10 +7197,10 @@
         <v>1035</v>
       </c>
       <c r="H94" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I94" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -7212,10 +7223,10 @@
         <v>1036</v>
       </c>
       <c r="H95" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I95" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -7238,10 +7249,10 @@
         <v>1037</v>
       </c>
       <c r="H96" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I96" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7264,10 +7275,10 @@
         <v>1038</v>
       </c>
       <c r="H97" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I97" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7290,10 +7301,10 @@
         <v>1039</v>
       </c>
       <c r="H98" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I98" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7316,10 +7327,10 @@
         <v>1040</v>
       </c>
       <c r="H99" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I99" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7342,10 +7353,10 @@
         <v>1041</v>
       </c>
       <c r="H100" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I100" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7368,10 +7379,10 @@
         <v>1042</v>
       </c>
       <c r="H101" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I101" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7394,10 +7405,10 @@
         <v>1043</v>
       </c>
       <c r="H102" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="I102" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7420,10 +7431,10 @@
         <v>1044</v>
       </c>
       <c r="H103" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="I103" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7446,10 +7457,10 @@
         <v>1045</v>
       </c>
       <c r="H104" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I104" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7472,10 +7483,10 @@
         <v>1046</v>
       </c>
       <c r="H105" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I105" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7498,10 +7509,10 @@
         <v>992</v>
       </c>
       <c r="H106" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I106" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7524,10 +7535,10 @@
         <v>1047</v>
       </c>
       <c r="H107" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I107" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7550,10 +7561,10 @@
         <v>1043</v>
       </c>
       <c r="H108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I108" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7576,10 +7587,10 @@
         <v>1048</v>
       </c>
       <c r="H109" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I109" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7602,10 +7613,10 @@
         <v>1049</v>
       </c>
       <c r="H110" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I110" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7628,10 +7639,10 @@
         <v>1050</v>
       </c>
       <c r="H111" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I111" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7654,10 +7665,10 @@
         <v>1051</v>
       </c>
       <c r="H112" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I112" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7680,10 +7691,10 @@
         <v>1043</v>
       </c>
       <c r="H113" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I113" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7706,10 +7717,10 @@
         <v>1043</v>
       </c>
       <c r="H114" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I114" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7732,10 +7743,10 @@
         <v>1052</v>
       </c>
       <c r="H115" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I115" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7758,10 +7769,10 @@
         <v>1053</v>
       </c>
       <c r="H116" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I116" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7784,10 +7795,10 @@
         <v>1054</v>
       </c>
       <c r="H117" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I117" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7810,10 +7821,10 @@
         <v>1055</v>
       </c>
       <c r="H118" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I118" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7836,10 +7847,10 @@
         <v>1056</v>
       </c>
       <c r="H119" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I119" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7862,10 +7873,10 @@
         <v>1043</v>
       </c>
       <c r="H120" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I120" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7888,10 +7899,10 @@
         <v>1043</v>
       </c>
       <c r="H121" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I121" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7914,10 +7925,10 @@
         <v>1057</v>
       </c>
       <c r="H122" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I122" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7940,16 +7951,16 @@
         <v>1058</v>
       </c>
       <c r="H123" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K123" t="s">
         <v>1299</v>
       </c>
-      <c r="I123" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K123" t="s">
-        <v>1300</v>
-      </c>
       <c r="L123" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7972,10 +7983,10 @@
         <v>994</v>
       </c>
       <c r="H124" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I124" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7998,10 +8009,10 @@
         <v>1059</v>
       </c>
       <c r="H125" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I125" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8024,10 +8035,10 @@
         <v>1060</v>
       </c>
       <c r="H126" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I126" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8050,10 +8061,10 @@
         <v>957</v>
       </c>
       <c r="H127" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I127" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8076,10 +8087,10 @@
         <v>1061</v>
       </c>
       <c r="H128" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I128" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8102,10 +8113,10 @@
         <v>1062</v>
       </c>
       <c r="H129" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I129" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8128,10 +8139,10 @@
         <v>1063</v>
       </c>
       <c r="H130" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I130" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8154,10 +8165,10 @@
         <v>1064</v>
       </c>
       <c r="H131" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I131" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8180,10 +8191,10 @@
         <v>1009</v>
       </c>
       <c r="H132" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I132" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8206,10 +8217,10 @@
         <v>1043</v>
       </c>
       <c r="H133" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I133" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8232,10 +8243,10 @@
         <v>1065</v>
       </c>
       <c r="H134" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I134" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8258,10 +8269,10 @@
         <v>1066</v>
       </c>
       <c r="H135" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I135" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8284,10 +8295,10 @@
         <v>1067</v>
       </c>
       <c r="H136" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I136" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8310,10 +8321,10 @@
         <v>1068</v>
       </c>
       <c r="H137" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I137" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8336,10 +8347,10 @@
         <v>1069</v>
       </c>
       <c r="H138" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I138" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8361,11 +8372,11 @@
       <c r="G139" t="s">
         <v>1070</v>
       </c>
-      <c r="H139" t="s">
-        <v>1392</v>
+      <c r="H139" s="2" t="s">
+        <v>1432</v>
       </c>
       <c r="I139" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8388,10 +8399,10 @@
         <v>1071</v>
       </c>
       <c r="H140" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I140" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8414,10 +8425,10 @@
         <v>1043</v>
       </c>
       <c r="H141" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="I141" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8440,10 +8451,10 @@
         <v>1043</v>
       </c>
       <c r="H142" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="I142" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8466,7 +8477,7 @@
         <v>1072</v>
       </c>
       <c r="H143" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8489,7 +8500,7 @@
         <v>1073</v>
       </c>
       <c r="H144" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8511,11 +8522,11 @@
       <c r="G145" t="s">
         <v>1074</v>
       </c>
-      <c r="H145" t="s">
-        <v>1394</v>
+      <c r="H145" s="3" t="s">
+        <v>1433</v>
       </c>
       <c r="I145" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8537,11 +8548,11 @@
       <c r="G146" t="s">
         <v>1043</v>
       </c>
-      <c r="H146" t="s">
-        <v>1394</v>
+      <c r="H146" s="3" t="s">
+        <v>1433</v>
       </c>
       <c r="I146" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8564,10 +8575,10 @@
         <v>1075</v>
       </c>
       <c r="H147" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I147" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8590,10 +8601,10 @@
         <v>1076</v>
       </c>
       <c r="H148" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I148" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8616,10 +8627,10 @@
         <v>1077</v>
       </c>
       <c r="H149" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I149" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8642,10 +8653,10 @@
         <v>1078</v>
       </c>
       <c r="H150" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I150" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8668,10 +8679,10 @@
         <v>1079</v>
       </c>
       <c r="H151" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I151" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8694,10 +8705,10 @@
         <v>1080</v>
       </c>
       <c r="H152" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I152" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8720,10 +8731,10 @@
         <v>1081</v>
       </c>
       <c r="H153" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I153" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8746,10 +8757,10 @@
         <v>1082</v>
       </c>
       <c r="H154" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I154" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8772,10 +8783,10 @@
         <v>1083</v>
       </c>
       <c r="H155" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I155" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8798,10 +8809,10 @@
         <v>998</v>
       </c>
       <c r="H156" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I156" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8824,10 +8835,10 @@
         <v>1084</v>
       </c>
       <c r="H157" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="I157" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8850,10 +8861,10 @@
         <v>999</v>
       </c>
       <c r="H158" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="I158" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8876,16 +8887,16 @@
         <v>1085</v>
       </c>
       <c r="H159" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="I159" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K159" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="L159" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8908,10 +8919,10 @@
         <v>1086</v>
       </c>
       <c r="H160" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="I160" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -8934,10 +8945,10 @@
         <v>1087</v>
       </c>
       <c r="H161" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="I161" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -8960,10 +8971,10 @@
         <v>1088</v>
       </c>
       <c r="H162" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="I162" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -8986,13 +8997,13 @@
         <v>1013</v>
       </c>
       <c r="H163" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I163" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J163" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -9015,13 +9026,13 @@
         <v>1089</v>
       </c>
       <c r="H164" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I164" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J164" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -9044,13 +9055,13 @@
         <v>1039</v>
       </c>
       <c r="H165" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I165" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J165" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -9073,13 +9084,13 @@
         <v>1090</v>
       </c>
       <c r="H166" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I166" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J166" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -9102,13 +9113,13 @@
         <v>1091</v>
       </c>
       <c r="H167" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I167" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J167" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -9131,10 +9142,10 @@
         <v>1079</v>
       </c>
       <c r="H168" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I168" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -9157,10 +9168,10 @@
         <v>1092</v>
       </c>
       <c r="H169" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="I169" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -9183,10 +9194,10 @@
         <v>982</v>
       </c>
       <c r="H170" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="I170" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -9209,10 +9220,10 @@
         <v>1093</v>
       </c>
       <c r="H171" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="I171" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -9235,10 +9246,10 @@
         <v>1094</v>
       </c>
       <c r="H172" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I172" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -9261,10 +9272,10 @@
         <v>1095</v>
       </c>
       <c r="H173" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I173" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -9287,10 +9298,10 @@
         <v>1096</v>
       </c>
       <c r="H174" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I174" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -9313,10 +9324,10 @@
         <v>1097</v>
       </c>
       <c r="H175" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I175" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -9339,10 +9350,10 @@
         <v>1098</v>
       </c>
       <c r="H176" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I176" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9365,10 +9376,10 @@
         <v>1099</v>
       </c>
       <c r="H177" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I177" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9391,10 +9402,10 @@
         <v>1100</v>
       </c>
       <c r="H178" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I178" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9417,10 +9428,10 @@
         <v>1101</v>
       </c>
       <c r="H179" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I179" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9443,10 +9454,10 @@
         <v>1102</v>
       </c>
       <c r="H180" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I180" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9469,10 +9480,10 @@
         <v>1103</v>
       </c>
       <c r="H181" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I181" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9495,10 +9506,10 @@
         <v>1104</v>
       </c>
       <c r="H182" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="I182" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9521,10 +9532,10 @@
         <v>1026</v>
       </c>
       <c r="H183" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="I183" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9547,10 +9558,10 @@
         <v>1105</v>
       </c>
       <c r="H184" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="I184" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9573,10 +9584,10 @@
         <v>1106</v>
       </c>
       <c r="H185" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I185" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9599,10 +9610,10 @@
         <v>1107</v>
       </c>
       <c r="H186" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I186" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9625,16 +9636,16 @@
         <v>1108</v>
       </c>
       <c r="H187" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K187" t="s">
         <v>1314</v>
       </c>
-      <c r="I187" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K187" t="s">
-        <v>1315</v>
-      </c>
       <c r="L187" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9657,10 +9668,10 @@
         <v>1109</v>
       </c>
       <c r="H188" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I188" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9683,10 +9694,10 @@
         <v>1110</v>
       </c>
       <c r="H189" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I189" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9709,10 +9720,10 @@
         <v>1111</v>
       </c>
       <c r="H190" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I190" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9735,10 +9746,10 @@
         <v>1112</v>
       </c>
       <c r="H191" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I191" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9761,10 +9772,10 @@
         <v>1113</v>
       </c>
       <c r="H192" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I192" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9787,10 +9798,10 @@
         <v>1114</v>
       </c>
       <c r="H193" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I193" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9813,10 +9824,10 @@
         <v>1115</v>
       </c>
       <c r="H194" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I194" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9839,10 +9850,10 @@
         <v>1116</v>
       </c>
       <c r="H195" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I195" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9865,10 +9876,10 @@
         <v>1110</v>
       </c>
       <c r="H196" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I196" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9891,10 +9902,10 @@
         <v>1117</v>
       </c>
       <c r="H197" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I197" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9917,10 +9928,10 @@
         <v>1118</v>
       </c>
       <c r="H198" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I198" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9943,10 +9954,10 @@
         <v>1119</v>
       </c>
       <c r="H199" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I199" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9969,10 +9980,10 @@
         <v>1120</v>
       </c>
       <c r="H200" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I200" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9995,10 +10006,10 @@
         <v>1121</v>
       </c>
       <c r="H201" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I201" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10021,10 +10032,10 @@
         <v>1122</v>
       </c>
       <c r="H202" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I202" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10047,10 +10058,10 @@
         <v>1123</v>
       </c>
       <c r="H203" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I203" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10073,10 +10084,10 @@
         <v>1124</v>
       </c>
       <c r="H204" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I204" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10099,10 +10110,10 @@
         <v>1125</v>
       </c>
       <c r="H205" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I205" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10125,10 +10136,10 @@
         <v>1110</v>
       </c>
       <c r="H206" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I206" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10151,10 +10162,10 @@
         <v>1126</v>
       </c>
       <c r="H207" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I207" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10177,10 +10188,10 @@
         <v>1125</v>
       </c>
       <c r="H208" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I208" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10203,10 +10214,10 @@
         <v>1127</v>
       </c>
       <c r="H209" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I209" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10229,10 +10240,10 @@
         <v>1128</v>
       </c>
       <c r="H210" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I210" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10255,10 +10266,10 @@
         <v>1129</v>
       </c>
       <c r="H211" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I211" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10281,10 +10292,10 @@
         <v>1130</v>
       </c>
       <c r="H212" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I212" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10307,10 +10318,10 @@
         <v>1110</v>
       </c>
       <c r="H213" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I213" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10333,13 +10344,13 @@
         <v>1131</v>
       </c>
       <c r="H214" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I214" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="J214" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10362,13 +10373,13 @@
         <v>1110</v>
       </c>
       <c r="H215" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I215" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="J215" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10391,13 +10402,13 @@
         <v>1132</v>
       </c>
       <c r="H216" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I216" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J216" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10420,13 +10431,13 @@
         <v>1133</v>
       </c>
       <c r="H217" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I217" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J217" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10449,10 +10460,10 @@
         <v>1134</v>
       </c>
       <c r="H218" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I218" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10475,10 +10486,10 @@
         <v>1135</v>
       </c>
       <c r="H219" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I219" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10501,10 +10512,10 @@
         <v>1136</v>
       </c>
       <c r="H220" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I220" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10527,10 +10538,10 @@
         <v>1137</v>
       </c>
       <c r="H221" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="I221" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10553,13 +10564,13 @@
         <v>1138</v>
       </c>
       <c r="H222" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I222" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J222" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10582,10 +10593,10 @@
         <v>1139</v>
       </c>
       <c r="H223" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I223" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10611,7 +10622,7 @@
         <v>1268</v>
       </c>
       <c r="I224" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10637,7 +10648,7 @@
         <v>1268</v>
       </c>
       <c r="I225" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10660,10 +10671,10 @@
         <v>981</v>
       </c>
       <c r="H226" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I226" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10686,10 +10697,10 @@
         <v>1141</v>
       </c>
       <c r="H227" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I227" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10715,7 +10726,7 @@
         <v>1268</v>
       </c>
       <c r="I228" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10741,7 +10752,7 @@
         <v>1268</v>
       </c>
       <c r="I229" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10764,10 +10775,10 @@
         <v>1079</v>
       </c>
       <c r="H230" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I230" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10790,10 +10801,10 @@
         <v>1139</v>
       </c>
       <c r="H231" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I231" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10816,10 +10827,10 @@
         <v>1136</v>
       </c>
       <c r="H232" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I232" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10842,10 +10853,10 @@
         <v>1043</v>
       </c>
       <c r="H233" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I233" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10868,10 +10879,10 @@
         <v>1017</v>
       </c>
       <c r="H234" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I234" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10894,10 +10905,10 @@
         <v>1143</v>
       </c>
       <c r="H235" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I235" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10920,13 +10931,13 @@
         <v>971</v>
       </c>
       <c r="H236" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I236" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J236" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10949,10 +10960,10 @@
         <v>1144</v>
       </c>
       <c r="H237" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="I237" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10975,10 +10986,10 @@
         <v>1145</v>
       </c>
       <c r="H238" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I238" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11001,10 +11012,10 @@
         <v>1146</v>
       </c>
       <c r="H239" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I239" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11027,10 +11038,10 @@
         <v>1147</v>
       </c>
       <c r="H240" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I240" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11053,10 +11064,10 @@
         <v>1148</v>
       </c>
       <c r="H241" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I241" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11079,10 +11090,10 @@
         <v>973</v>
       </c>
       <c r="H242" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I242" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11108,7 +11119,7 @@
         <v>1286</v>
       </c>
       <c r="I243" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11134,7 +11145,7 @@
         <v>1263</v>
       </c>
       <c r="I244" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11157,10 +11168,10 @@
         <v>1149</v>
       </c>
       <c r="H245" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I245" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11186,7 +11197,7 @@
         <v>1263</v>
       </c>
       <c r="I246" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11209,10 +11220,10 @@
         <v>1150</v>
       </c>
       <c r="H247" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I247" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11238,7 +11249,7 @@
         <v>1263</v>
       </c>
       <c r="I248" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11261,10 +11272,10 @@
         <v>1133</v>
       </c>
       <c r="H249" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I249" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11287,10 +11298,10 @@
         <v>1151</v>
       </c>
       <c r="H250" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I250" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11313,10 +11324,10 @@
         <v>1152</v>
       </c>
       <c r="H251" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I251" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11339,10 +11350,10 @@
         <v>1153</v>
       </c>
       <c r="H252" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I252" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11365,10 +11376,10 @@
         <v>1079</v>
       </c>
       <c r="H253" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I253" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11394,7 +11405,7 @@
         <v>1286</v>
       </c>
       <c r="I254" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11417,10 +11428,10 @@
         <v>1155</v>
       </c>
       <c r="H255" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I255" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11443,10 +11454,10 @@
         <v>954</v>
       </c>
       <c r="H256" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I256" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11469,10 +11480,10 @@
         <v>1136</v>
       </c>
       <c r="H257" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I257" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11495,10 +11506,10 @@
         <v>1156</v>
       </c>
       <c r="H258" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I258" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11521,10 +11532,10 @@
         <v>1043</v>
       </c>
       <c r="H259" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I259" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11550,7 +11561,7 @@
         <v>1286</v>
       </c>
       <c r="I260" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11573,10 +11584,10 @@
         <v>1079</v>
       </c>
       <c r="H261" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I261" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11599,10 +11610,10 @@
         <v>1079</v>
       </c>
       <c r="H262" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I262" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11625,10 +11636,10 @@
         <v>1139</v>
       </c>
       <c r="H263" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I263" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11651,10 +11662,10 @@
         <v>1134</v>
       </c>
       <c r="H264" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I264" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11677,10 +11688,10 @@
         <v>1157</v>
       </c>
       <c r="H265" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I265" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11703,10 +11714,10 @@
         <v>1158</v>
       </c>
       <c r="H266" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I266" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11729,10 +11740,10 @@
         <v>1159</v>
       </c>
       <c r="H267" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I267" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11755,10 +11766,10 @@
         <v>1139</v>
       </c>
       <c r="H268" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I268" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11781,10 +11792,10 @@
         <v>1026</v>
       </c>
       <c r="H269" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I269" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11807,10 +11818,10 @@
         <v>1160</v>
       </c>
       <c r="H270" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I270" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11833,10 +11844,10 @@
         <v>1161</v>
       </c>
       <c r="H271" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I271" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11862,10 +11873,10 @@
         <v>1162</v>
       </c>
       <c r="H272" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I272" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11888,10 +11899,10 @@
         <v>1163</v>
       </c>
       <c r="H273" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I273" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11914,10 +11925,10 @@
         <v>1011</v>
       </c>
       <c r="H274" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I274" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11940,10 +11951,10 @@
         <v>1139</v>
       </c>
       <c r="H275" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I275" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11966,10 +11977,10 @@
         <v>994</v>
       </c>
       <c r="H276" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I276" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11992,10 +12003,10 @@
         <v>961</v>
       </c>
       <c r="H277" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I277" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -12018,10 +12029,10 @@
         <v>1011</v>
       </c>
       <c r="H278" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I278" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -12044,10 +12055,10 @@
         <v>1164</v>
       </c>
       <c r="H279" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I279" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -12070,10 +12081,10 @@
         <v>957</v>
       </c>
       <c r="H280" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I280" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -12096,10 +12107,10 @@
         <v>1007</v>
       </c>
       <c r="H281" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I281" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -12122,10 +12133,10 @@
         <v>1136</v>
       </c>
       <c r="H282" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I282" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -12148,13 +12159,13 @@
         <v>1165</v>
       </c>
       <c r="H283" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I283" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J283" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -12180,13 +12191,13 @@
         <v>1013</v>
       </c>
       <c r="H284" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I284" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J284" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -12212,13 +12223,13 @@
         <v>1157</v>
       </c>
       <c r="H285" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I285" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J285" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -12241,10 +12252,10 @@
         <v>1166</v>
       </c>
       <c r="H286" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I286" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -12267,10 +12278,10 @@
         <v>1167</v>
       </c>
       <c r="H287" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I287" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12293,10 +12304,10 @@
         <v>1168</v>
       </c>
       <c r="H288" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I288" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12319,10 +12330,10 @@
         <v>1169</v>
       </c>
       <c r="H289" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I289" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12345,10 +12356,10 @@
         <v>1170</v>
       </c>
       <c r="H290" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I290" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12371,10 +12382,10 @@
         <v>1171</v>
       </c>
       <c r="H291" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I291" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12397,10 +12408,10 @@
         <v>1172</v>
       </c>
       <c r="H292" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I292" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12423,10 +12434,10 @@
         <v>1173</v>
       </c>
       <c r="H293" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I293" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12449,10 +12460,10 @@
         <v>1174</v>
       </c>
       <c r="H294" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I294" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12475,10 +12486,10 @@
         <v>1175</v>
       </c>
       <c r="H295" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I295" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12501,10 +12512,10 @@
         <v>1154</v>
       </c>
       <c r="H296" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I296" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12527,10 +12538,10 @@
         <v>960</v>
       </c>
       <c r="H297" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I297" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12553,10 +12564,10 @@
         <v>1155</v>
       </c>
       <c r="H298" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I298" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12579,10 +12590,10 @@
         <v>1030</v>
       </c>
       <c r="H299" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I299" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12605,10 +12616,10 @@
         <v>1176</v>
       </c>
       <c r="H300" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I300" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12631,10 +12642,10 @@
         <v>1177</v>
       </c>
       <c r="H301" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I301" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12657,10 +12668,10 @@
         <v>1017</v>
       </c>
       <c r="H302" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I302" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12683,10 +12694,10 @@
         <v>1178</v>
       </c>
       <c r="H303" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I303" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12709,10 +12720,10 @@
         <v>1179</v>
       </c>
       <c r="H304" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I304" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12735,10 +12746,10 @@
         <v>1180</v>
       </c>
       <c r="H305" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I305" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12761,10 +12772,10 @@
         <v>1015</v>
       </c>
       <c r="H306" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I306" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12787,10 +12798,10 @@
         <v>1158</v>
       </c>
       <c r="H307" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I307" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12813,10 +12824,10 @@
         <v>957</v>
       </c>
       <c r="H308" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="I308" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12839,10 +12850,10 @@
         <v>992</v>
       </c>
       <c r="H309" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="I309" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12865,10 +12876,10 @@
         <v>1181</v>
       </c>
       <c r="H310" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I310" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12891,10 +12902,10 @@
         <v>1182</v>
       </c>
       <c r="H311" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="I311" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12917,10 +12928,10 @@
         <v>1183</v>
       </c>
       <c r="H312" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="I312" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12943,10 +12954,10 @@
         <v>1184</v>
       </c>
       <c r="H313" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I313" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12969,10 +12980,10 @@
         <v>1172</v>
       </c>
       <c r="H314" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I314" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12995,10 +13006,10 @@
         <v>995</v>
       </c>
       <c r="H315" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I315" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13021,10 +13032,10 @@
         <v>1185</v>
       </c>
       <c r="H316" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I316" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13047,10 +13058,10 @@
         <v>996</v>
       </c>
       <c r="H317" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I317" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13073,10 +13084,10 @@
         <v>1186</v>
       </c>
       <c r="H318" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I318" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13099,10 +13110,10 @@
         <v>1125</v>
       </c>
       <c r="H319" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I319" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13128,7 +13139,7 @@
         <v>1272</v>
       </c>
       <c r="I320" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -13154,7 +13165,7 @@
         <v>1272</v>
       </c>
       <c r="I321" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -13177,10 +13188,10 @@
         <v>1187</v>
       </c>
       <c r="H322" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I322" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -13203,10 +13214,10 @@
         <v>1043</v>
       </c>
       <c r="H323" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I323" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -13229,10 +13240,10 @@
         <v>1079</v>
       </c>
       <c r="H324" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I324" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -13255,10 +13266,10 @@
         <v>1188</v>
       </c>
       <c r="H325" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I325" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -13281,10 +13292,10 @@
         <v>1189</v>
       </c>
       <c r="H326" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="I326" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -13307,13 +13318,13 @@
         <v>1190</v>
       </c>
       <c r="H327" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I327" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J327" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -13336,13 +13347,13 @@
         <v>1191</v>
       </c>
       <c r="H328" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I328" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J328" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -13365,10 +13376,10 @@
         <v>981</v>
       </c>
       <c r="H329" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I329" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -13391,10 +13402,10 @@
         <v>1192</v>
       </c>
       <c r="H330" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I330" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -13417,10 +13428,10 @@
         <v>969</v>
       </c>
       <c r="H331" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I331" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -13443,10 +13454,10 @@
         <v>1193</v>
       </c>
       <c r="H332" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I332" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -13469,10 +13480,10 @@
         <v>1006</v>
       </c>
       <c r="H333" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I333" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -13495,10 +13506,10 @@
         <v>992</v>
       </c>
       <c r="H334" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I334" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -13521,10 +13532,10 @@
         <v>973</v>
       </c>
       <c r="H335" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I335" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -13547,10 +13558,10 @@
         <v>1194</v>
       </c>
       <c r="H336" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I336" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13573,10 +13584,10 @@
         <v>1039</v>
       </c>
       <c r="H337" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I337" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13599,13 +13610,13 @@
         <v>1195</v>
       </c>
       <c r="H338" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I338" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J338" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13628,13 +13639,13 @@
         <v>1196</v>
       </c>
       <c r="H339" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I339" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="J339" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13657,10 +13668,10 @@
         <v>1197</v>
       </c>
       <c r="H340" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I340" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13683,10 +13694,10 @@
         <v>972</v>
       </c>
       <c r="H341" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I341" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13709,10 +13720,10 @@
         <v>970</v>
       </c>
       <c r="H342" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I342" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13735,10 +13746,10 @@
         <v>1198</v>
       </c>
       <c r="H343" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I343" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13761,10 +13772,10 @@
         <v>972</v>
       </c>
       <c r="H344" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I344" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13787,10 +13798,10 @@
         <v>1199</v>
       </c>
       <c r="H345" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I345" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13813,10 +13824,10 @@
         <v>1014</v>
       </c>
       <c r="H346" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="I346" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13839,10 +13850,10 @@
         <v>1200</v>
       </c>
       <c r="H347" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I347" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13865,10 +13876,10 @@
         <v>1139</v>
       </c>
       <c r="H348" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I348" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13891,10 +13902,10 @@
         <v>1043</v>
       </c>
       <c r="H349" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I349" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13917,10 +13928,10 @@
         <v>1043</v>
       </c>
       <c r="H350" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I350" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13943,10 +13954,10 @@
         <v>1079</v>
       </c>
       <c r="H351" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I351" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13969,10 +13980,10 @@
         <v>1154</v>
       </c>
       <c r="H352" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I352" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13995,10 +14006,10 @@
         <v>1154</v>
       </c>
       <c r="H353" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I353" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -14021,10 +14032,10 @@
         <v>1154</v>
       </c>
       <c r="H354" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I354" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -14047,10 +14058,10 @@
         <v>962</v>
       </c>
       <c r="H355" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I355" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -14073,10 +14084,10 @@
         <v>1052</v>
       </c>
       <c r="H356" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="I356" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -14099,10 +14110,10 @@
         <v>1079</v>
       </c>
       <c r="H357" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I357" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -14125,10 +14136,10 @@
         <v>1079</v>
       </c>
       <c r="H358" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="I358" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14151,10 +14162,10 @@
         <v>1201</v>
       </c>
       <c r="H359" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="I359" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14177,10 +14188,10 @@
         <v>1006</v>
       </c>
       <c r="H360" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="I360" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14203,10 +14214,10 @@
         <v>1202</v>
       </c>
       <c r="H361" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="I361" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14229,16 +14240,16 @@
         <v>996</v>
       </c>
       <c r="H362" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="I362" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K362" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="L362" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14261,10 +14272,10 @@
         <v>1203</v>
       </c>
       <c r="H363" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I363" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14287,10 +14298,10 @@
         <v>1204</v>
       </c>
       <c r="H364" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I364" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14313,10 +14324,10 @@
         <v>1018</v>
       </c>
       <c r="H365" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I365" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14339,10 +14350,10 @@
         <v>995</v>
       </c>
       <c r="H366" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I366" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14365,10 +14376,10 @@
         <v>1205</v>
       </c>
       <c r="H367" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I367" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14394,13 +14405,13 @@
         <v>1206</v>
       </c>
       <c r="H368" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I368" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="J368" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14426,13 +14437,13 @@
         <v>970</v>
       </c>
       <c r="H369" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I369" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="J369" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14458,13 +14469,13 @@
         <v>1014</v>
       </c>
       <c r="H370" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I370" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="J370" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14490,10 +14501,10 @@
         <v>1207</v>
       </c>
       <c r="H371" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I371" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14516,10 +14527,10 @@
         <v>998</v>
       </c>
       <c r="H372" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I372" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14542,10 +14553,10 @@
         <v>1125</v>
       </c>
       <c r="H373" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I373" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14568,10 +14579,10 @@
         <v>1208</v>
       </c>
       <c r="H374" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I374" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14594,10 +14605,10 @@
         <v>1209</v>
       </c>
       <c r="H375" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I375" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14620,10 +14631,10 @@
         <v>1110</v>
       </c>
       <c r="H376" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I376" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14646,10 +14657,10 @@
         <v>1210</v>
       </c>
       <c r="H377" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="I377" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14672,10 +14683,10 @@
         <v>1172</v>
       </c>
       <c r="H378" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I378" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14698,10 +14709,10 @@
         <v>1211</v>
       </c>
       <c r="H379" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I379" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14724,10 +14735,10 @@
         <v>1212</v>
       </c>
       <c r="H380" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I380" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14750,10 +14761,10 @@
         <v>1213</v>
       </c>
       <c r="H381" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I381" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14776,10 +14787,10 @@
         <v>1214</v>
       </c>
       <c r="H382" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I382" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14802,10 +14813,10 @@
         <v>1215</v>
       </c>
       <c r="H383" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I383" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14828,10 +14839,10 @@
         <v>1079</v>
       </c>
       <c r="H384" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I384" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14854,10 +14865,10 @@
         <v>1192</v>
       </c>
       <c r="H385" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I385" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14880,10 +14891,10 @@
         <v>1006</v>
       </c>
       <c r="H386" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I386" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14906,10 +14917,10 @@
         <v>1216</v>
       </c>
       <c r="H387" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I387" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14932,10 +14943,10 @@
         <v>1217</v>
       </c>
       <c r="H388" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I388" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14958,10 +14969,10 @@
         <v>1125</v>
       </c>
       <c r="H389" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I389" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14984,7 +14995,7 @@
         <v>1218</v>
       </c>
       <c r="H390" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15007,7 +15018,7 @@
         <v>1110</v>
       </c>
       <c r="H391" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15030,7 +15041,7 @@
         <v>1110</v>
       </c>
       <c r="H392" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15053,7 +15064,7 @@
         <v>1209</v>
       </c>
       <c r="H393" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15076,10 +15087,10 @@
         <v>1219</v>
       </c>
       <c r="H394" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I394" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15102,10 +15113,10 @@
         <v>1052</v>
       </c>
       <c r="H395" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I395" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15128,10 +15139,10 @@
         <v>1220</v>
       </c>
       <c r="H396" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I396" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15154,10 +15165,10 @@
         <v>1221</v>
       </c>
       <c r="H397" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I397" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15180,10 +15191,10 @@
         <v>1222</v>
       </c>
       <c r="H398" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I398" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15206,10 +15217,10 @@
         <v>1223</v>
       </c>
       <c r="H399" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I399" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15232,10 +15243,10 @@
         <v>1224</v>
       </c>
       <c r="H400" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I400" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15258,10 +15269,10 @@
         <v>1225</v>
       </c>
       <c r="H401" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I401" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15284,10 +15295,10 @@
         <v>1192</v>
       </c>
       <c r="H402" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I402" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15310,10 +15321,10 @@
         <v>1043</v>
       </c>
       <c r="H403" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I403" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15336,10 +15347,10 @@
         <v>1043</v>
       </c>
       <c r="H404" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I404" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15362,10 +15373,10 @@
         <v>1079</v>
       </c>
       <c r="H405" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I405" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15388,10 +15399,10 @@
         <v>1079</v>
       </c>
       <c r="H406" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I406" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15414,10 +15425,10 @@
         <v>1043</v>
       </c>
       <c r="H407" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I407" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15440,10 +15451,10 @@
         <v>1079</v>
       </c>
       <c r="H408" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I408" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15466,10 +15477,10 @@
         <v>1079</v>
       </c>
       <c r="H409" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I409" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15492,10 +15503,10 @@
         <v>1043</v>
       </c>
       <c r="H410" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I410" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15521,10 +15532,10 @@
         <v>1226</v>
       </c>
       <c r="H411" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I411" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15550,10 +15561,10 @@
         <v>1227</v>
       </c>
       <c r="H412" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I412" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15579,10 +15590,10 @@
         <v>1228</v>
       </c>
       <c r="H413" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I413" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15608,10 +15619,10 @@
         <v>1229</v>
       </c>
       <c r="H414" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I414" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15637,10 +15648,10 @@
         <v>1230</v>
       </c>
       <c r="H415" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I415" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15666,10 +15677,10 @@
         <v>1230</v>
       </c>
       <c r="H416" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I416" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15695,10 +15706,10 @@
         <v>1231</v>
       </c>
       <c r="H417" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I417" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15724,10 +15735,10 @@
         <v>1232</v>
       </c>
       <c r="H418" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I418" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15753,10 +15764,10 @@
         <v>1233</v>
       </c>
       <c r="H419" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I419" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15782,10 +15793,10 @@
         <v>1234</v>
       </c>
       <c r="H420" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I420" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15811,10 +15822,10 @@
         <v>1235</v>
       </c>
       <c r="H421" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I421" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15840,10 +15851,10 @@
         <v>1110</v>
       </c>
       <c r="H422" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I422" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15869,10 +15880,10 @@
         <v>992</v>
       </c>
       <c r="H423" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I423" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15898,10 +15909,10 @@
         <v>957</v>
       </c>
       <c r="H424" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I424" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15924,10 +15935,10 @@
         <v>1079</v>
       </c>
       <c r="H425" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I425" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15950,10 +15961,10 @@
         <v>1079</v>
       </c>
       <c r="H426" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I426" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15979,7 +15990,7 @@
         <v>1283</v>
       </c>
       <c r="I427" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16005,7 +16016,7 @@
         <v>1283</v>
       </c>
       <c r="I428" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16031,7 +16042,7 @@
         <v>1283</v>
       </c>
       <c r="I429" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16057,13 +16068,13 @@
         <v>1283</v>
       </c>
       <c r="I430" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K430" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="L430" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16089,13 +16100,13 @@
         <v>1283</v>
       </c>
       <c r="I431" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K431" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="L431" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16118,10 +16129,10 @@
         <v>1043</v>
       </c>
       <c r="H432" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="I432" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16144,10 +16155,10 @@
         <v>1043</v>
       </c>
       <c r="H433" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I433" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16170,10 +16181,10 @@
         <v>1043</v>
       </c>
       <c r="H434" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I434" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16196,10 +16207,10 @@
         <v>1241</v>
       </c>
       <c r="H435" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I435" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16222,10 +16233,10 @@
         <v>1242</v>
       </c>
       <c r="H436" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I436" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16248,10 +16259,10 @@
         <v>1243</v>
       </c>
       <c r="H437" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I437" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16274,10 +16285,10 @@
         <v>1244</v>
       </c>
       <c r="H438" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I438" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16300,10 +16311,10 @@
         <v>1245</v>
       </c>
       <c r="H439" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I439" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16326,10 +16337,10 @@
         <v>1246</v>
       </c>
       <c r="H440" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I440" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16352,10 +16363,10 @@
         <v>1247</v>
       </c>
       <c r="H441" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I441" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16378,10 +16389,10 @@
         <v>1248</v>
       </c>
       <c r="H442" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I442" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16404,10 +16415,10 @@
         <v>1249</v>
       </c>
       <c r="H443" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I443" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16430,10 +16441,10 @@
         <v>1250</v>
       </c>
       <c r="H444" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I444" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16456,10 +16467,10 @@
         <v>1251</v>
       </c>
       <c r="H445" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I445" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16482,10 +16493,10 @@
         <v>1030</v>
       </c>
       <c r="H446" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I446" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16508,10 +16519,10 @@
         <v>1252</v>
       </c>
       <c r="H447" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I447" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16534,10 +16545,10 @@
         <v>1253</v>
       </c>
       <c r="H448" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I448" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16560,10 +16571,10 @@
         <v>1125</v>
       </c>
       <c r="H449" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I449" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16586,10 +16597,10 @@
         <v>1040</v>
       </c>
       <c r="H450" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I450" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16612,10 +16623,10 @@
         <v>1254</v>
       </c>
       <c r="H451" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I451" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16638,10 +16649,10 @@
         <v>996</v>
       </c>
       <c r="H452" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I452" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16664,10 +16675,10 @@
         <v>1255</v>
       </c>
       <c r="H453" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I453" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16693,10 +16704,10 @@
         <v>1256</v>
       </c>
       <c r="H454" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I454" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16719,16 +16730,16 @@
         <v>1110</v>
       </c>
       <c r="H455" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I455" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K455" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="L455" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16751,19 +16762,19 @@
         <v>1110</v>
       </c>
       <c r="H456" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I456" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K456" t="s">
         <v>1378</v>
       </c>
-      <c r="I456" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K456" t="s">
-        <v>1379</v>
-      </c>
       <c r="M456" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="N456" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16786,10 +16797,10 @@
         <v>1079</v>
       </c>
       <c r="H457" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I457" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16812,10 +16823,10 @@
         <v>1257</v>
       </c>
       <c r="H458" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I458" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16838,10 +16849,10 @@
         <v>1079</v>
       </c>
       <c r="H459" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I459" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16864,10 +16875,10 @@
         <v>1153</v>
       </c>
       <c r="H460" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I460" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16890,10 +16901,10 @@
         <v>1079</v>
       </c>
       <c r="H461" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I461" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16916,10 +16927,10 @@
         <v>1258</v>
       </c>
       <c r="H462" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I462" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -16942,10 +16953,10 @@
         <v>1039</v>
       </c>
       <c r="H463" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I463" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -16968,10 +16979,10 @@
         <v>1079</v>
       </c>
       <c r="H464" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="I464" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -16994,10 +17005,10 @@
         <v>1043</v>
       </c>
       <c r="H465" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I465" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17020,10 +17031,10 @@
         <v>1079</v>
       </c>
       <c r="H466" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I466" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17046,10 +17057,10 @@
         <v>1181</v>
       </c>
       <c r="H467" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I467" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17072,10 +17083,10 @@
         <v>1079</v>
       </c>
       <c r="H468" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I468" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -17098,10 +17109,10 @@
         <v>1259</v>
       </c>
       <c r="H469" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I469" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -17124,10 +17135,10 @@
         <v>1125</v>
       </c>
       <c r="H470" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I470" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -17150,10 +17161,10 @@
         <v>1260</v>
       </c>
       <c r="H471" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I471" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -17176,10 +17187,10 @@
         <v>1261</v>
       </c>
       <c r="H472" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I472" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -17202,10 +17213,10 @@
         <v>1079</v>
       </c>
       <c r="H473" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I473" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -17228,10 +17239,10 @@
         <v>1079</v>
       </c>
       <c r="H474" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I474" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
